--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71168.96653048971</v>
+        <v>61414.34903901775</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24807526.39660446</v>
+        <v>24698199.01539732</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13705626.89988634</v>
+        <v>13093382.47000061</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4276760.01275867</v>
+        <v>4553848.951054692</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="H11" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>66.89487755631831</v>
       </c>
       <c r="X11" t="n">
-        <v>66.89487755631831</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="E12" t="n">
-        <v>66.89487755631829</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>66.89487755631833</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,62 +1527,62 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>66.89487755631831</v>
       </c>
-      <c r="G13" t="n">
-        <v>75.94786280235959</v>
-      </c>
-      <c r="H13" t="n">
-        <v>75.94786280235959</v>
-      </c>
-      <c r="I13" t="n">
-        <v>75.94786280235959</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>66.89487755631826</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="T14" t="n">
-        <v>66.89487755631831</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="C15" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>66.89487755631826</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>66.89487755631831</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S16" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="T16" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>66.89487755631831</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.485650230387948</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>161.4836453793819</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>386.2420083182227</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.6266496708097</v>
       </c>
       <c r="I17" t="n">
-        <v>31.9017704438018</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3244948037299</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>97.00917784523679</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>29.30651579589906</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.3565963627445</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3045292894585</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>121.9645406802867</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.8662665055796</v>
       </c>
       <c r="I19" t="n">
-        <v>1.351152857090947</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>56.38567239618434</v>
+        <v>42.72230758134139</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.1908757185469</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9195824570241</v>
       </c>
       <c r="V19" t="n">
-        <v>219.5565574740961</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>293.262016283928</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.6266496708097</v>
       </c>
       <c r="I20" t="n">
-        <v>31.90177044380177</v>
+        <v>5.784797228775417</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3244948037299</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>161.483645379382</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.1765168157536</v>
+        <v>104.8140549104884</v>
       </c>
       <c r="H21" t="n">
-        <v>62.85721528991137</v>
+        <v>59.3565963627445</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>154.7508334693185</v>
+        <v>153.2898576318678</v>
       </c>
       <c r="U21" t="n">
-        <v>106.5952743525576</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>177.6079691240358</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>52.49946172216981</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.43258009724633</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>42.72230758134139</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.3664150598866</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.1908757185469</v>
       </c>
       <c r="U22" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>219.5565574740961</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>96.9528357259375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>70.33784304042308</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.8004861190321</v>
@@ -2377,7 +2377,7 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>195.0337549641943</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>147.5090687066174</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>28.54981077954794</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>184.1895257590324</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>97.98015553243394</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>58.34716219715126</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5343322142292</v>
+        <v>141.0116304229299</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
         <v>232.6944259398202</v>
@@ -2775,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>150.7925011981638</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>243.9230074400774</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.01809521504953</v>
+        <v>58.01809521504954</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>55.85255598777692</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>12.49609587197794</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>166.3415337283568</v>
@@ -3009,10 +3009,10 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>103.5650533157995</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3094,10 +3094,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>341.6462241887988</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>159.0723316512319</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>141.559990258578</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>246.2258758681977</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
-        <v>43.75161849872839</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3331,10 +3331,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>160.2893547490404</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3435,10 +3435,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.8332284553781</v>
@@ -3480,19 +3480,19 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>82.4158184915313</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>135.6562225048342</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>339.9238805390646</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
-        <v>138.8332284553781</v>
+        <v>1.849029859922023</v>
       </c>
       <c r="I40" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
-        <v>67.72091293953031</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.3145745171349</v>
+        <v>307.9871668298241</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>203.2063362439853</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H42" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>83.78946074098185</v>
       </c>
       <c r="T42" t="n">
-        <v>152.7312370348056</v>
+        <v>152.7312370348051</v>
       </c>
       <c r="U42" t="n">
         <v>195.2954114342289</v>
@@ -3903,10 +3903,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3915,7 +3915,7 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>109.0566070365641</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>95.64247494507399</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>259.1817316442363</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T44" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>120.6413904049255</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H45" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098197</v>
       </c>
       <c r="T45" t="n">
         <v>152.7312370348056</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>128.3133597028922</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.49796586733679</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>232.6944259398202</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>76.99600422658102</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.2208678192179</v>
+        <v>82.79084195586515</v>
       </c>
       <c r="C11" t="n">
-        <v>236.2208678192179</v>
+        <v>82.79084195586515</v>
       </c>
       <c r="D11" t="n">
-        <v>236.2208678192179</v>
+        <v>82.79084195586515</v>
       </c>
       <c r="E11" t="n">
-        <v>236.2208678192179</v>
+        <v>82.79084195586515</v>
       </c>
       <c r="F11" t="n">
-        <v>159.5058548875415</v>
+        <v>82.79084195586515</v>
       </c>
       <c r="G11" t="n">
-        <v>82.79084195586513</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="H11" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="I11" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="J11" t="n">
-        <v>8.518653200747906</v>
+        <v>8.518653200747934</v>
       </c>
       <c r="K11" t="n">
-        <v>32.72891329418874</v>
+        <v>32.7289132941888</v>
       </c>
       <c r="L11" t="n">
-        <v>77.70909531020702</v>
+        <v>77.70909531020709</v>
       </c>
       <c r="M11" t="n">
         <v>140.5843367211127</v>
       </c>
       <c r="N11" t="n">
-        <v>206.3455576655152</v>
+        <v>206.3455576655151</v>
       </c>
       <c r="O11" t="n">
-        <v>263.0412330294163</v>
+        <v>263.0412330294162</v>
       </c>
       <c r="P11" t="n">
-        <v>297.4567749038208</v>
+        <v>297.4567749038209</v>
       </c>
       <c r="Q11" t="n">
         <v>303.7914512094384</v>
@@ -5068,25 +5068,25 @@
         <v>303.7914512094384</v>
       </c>
       <c r="S11" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777621</v>
       </c>
       <c r="T11" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777621</v>
       </c>
       <c r="U11" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777621</v>
       </c>
       <c r="V11" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777621</v>
       </c>
       <c r="W11" t="n">
-        <v>303.7914512094384</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="X11" t="n">
-        <v>236.2208678192179</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.2208678192179</v>
+        <v>159.5058548875415</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.3614253460856</v>
+        <v>303.7914512094384</v>
       </c>
       <c r="C12" t="n">
-        <v>73.64641241440927</v>
+        <v>227.0764382777621</v>
       </c>
       <c r="D12" t="n">
-        <v>73.64641241440927</v>
+        <v>150.3614253460857</v>
       </c>
       <c r="E12" t="n">
-        <v>6.075829024188768</v>
+        <v>73.64641241440931</v>
       </c>
       <c r="F12" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="G12" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="I12" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="J12" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="K12" t="n">
         <v>27.18934645194808</v>
@@ -5129,16 +5129,16 @@
         <v>74.33970537129234</v>
       </c>
       <c r="M12" t="n">
-        <v>137.2014819011798</v>
+        <v>137.2014819011799</v>
       </c>
       <c r="N12" t="n">
         <v>207.5625237956374</v>
       </c>
       <c r="O12" t="n">
-        <v>262.9301139282922</v>
+        <v>262.9301139282923</v>
       </c>
       <c r="P12" t="n">
-        <v>299.5375944741911</v>
+        <v>299.5375944741912</v>
       </c>
       <c r="Q12" t="n">
         <v>303.7914512094384</v>
@@ -5165,7 +5165,7 @@
         <v>303.7914512094384</v>
       </c>
       <c r="Y12" t="n">
-        <v>227.076438277762</v>
+        <v>303.7914512094384</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303.7914512094384</v>
+        <v>82.79084195586515</v>
       </c>
       <c r="C13" t="n">
-        <v>303.7914512094384</v>
+        <v>82.79084195586515</v>
       </c>
       <c r="D13" t="n">
-        <v>303.7914512094384</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="E13" t="n">
-        <v>303.7914512094384</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="F13" t="n">
-        <v>236.2208678192179</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="G13" t="n">
-        <v>159.5058548875415</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="H13" t="n">
-        <v>82.79084195586513</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="I13" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188769</v>
       </c>
       <c r="J13" t="n">
-        <v>6.075829024188768</v>
+        <v>48.19497630457666</v>
       </c>
       <c r="K13" t="n">
-        <v>81.26421319852476</v>
+        <v>48.19497630457666</v>
       </c>
       <c r="L13" t="n">
-        <v>146.4174075361549</v>
+        <v>123.3833604789127</v>
       </c>
       <c r="M13" t="n">
-        <v>152.8772665983641</v>
+        <v>198.5717446532487</v>
       </c>
       <c r="N13" t="n">
-        <v>228.0656507727001</v>
+        <v>273.7601288275847</v>
       </c>
       <c r="O13" t="n">
-        <v>228.6030670351024</v>
+        <v>274.297545089987</v>
       </c>
       <c r="P13" t="n">
         <v>303.7914512094384</v>
@@ -5229,22 +5229,22 @@
         <v>303.7914512094384</v>
       </c>
       <c r="T13" t="n">
-        <v>303.7914512094384</v>
+        <v>236.2208678192179</v>
       </c>
       <c r="U13" t="n">
-        <v>303.7914512094384</v>
+        <v>236.2208678192179</v>
       </c>
       <c r="V13" t="n">
-        <v>303.7914512094384</v>
+        <v>236.2208678192179</v>
       </c>
       <c r="W13" t="n">
-        <v>303.7914512094384</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="X13" t="n">
-        <v>303.7914512094384</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.7914512094384</v>
+        <v>159.5058548875415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.075829024188771</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="C14" t="n">
-        <v>6.075829024188771</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="D14" t="n">
-        <v>6.075829024188771</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="E14" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="F14" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="G14" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="H14" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="I14" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="J14" t="n">
-        <v>8.518653200747938</v>
+        <v>8.518653200747877</v>
       </c>
       <c r="K14" t="n">
-        <v>32.72891329418877</v>
+        <v>32.72891329418874</v>
       </c>
       <c r="L14" t="n">
-        <v>77.70909531020705</v>
+        <v>77.70909531020698</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5843367211127</v>
+        <v>140.5843367211125</v>
       </c>
       <c r="N14" t="n">
-        <v>206.3455576655152</v>
+        <v>206.3455576655151</v>
       </c>
       <c r="O14" t="n">
-        <v>263.0412330294163</v>
+        <v>263.0412330294161</v>
       </c>
       <c r="P14" t="n">
-        <v>297.456774903821</v>
+        <v>297.4567749038208</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R14" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S14" t="n">
-        <v>227.0764382777621</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="T14" t="n">
-        <v>159.5058548875416</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="U14" t="n">
-        <v>159.5058548875416</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="V14" t="n">
-        <v>82.79084195586518</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="W14" t="n">
-        <v>6.075829024188771</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="X14" t="n">
-        <v>6.075829024188771</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.075829024188771</v>
+        <v>73.64641241440924</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>159.5058548875416</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="C15" t="n">
-        <v>82.79084195586518</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="D15" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="E15" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="F15" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="G15" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="H15" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="I15" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="J15" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="K15" t="n">
-        <v>27.18934645194809</v>
+        <v>27.18934645194805</v>
       </c>
       <c r="L15" t="n">
-        <v>74.33970537129233</v>
+        <v>74.33970537129228</v>
       </c>
       <c r="M15" t="n">
         <v>137.2014819011799</v>
@@ -5372,37 +5372,37 @@
         <v>207.5625237956374</v>
       </c>
       <c r="O15" t="n">
-        <v>262.9301139282922</v>
+        <v>262.9301139282921</v>
       </c>
       <c r="P15" t="n">
-        <v>299.5375944741911</v>
+        <v>299.537594474191</v>
       </c>
       <c r="Q15" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R15" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S15" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="T15" t="n">
-        <v>303.7914512094385</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="U15" t="n">
-        <v>303.7914512094385</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="V15" t="n">
-        <v>303.7914512094385</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="W15" t="n">
-        <v>303.7914512094385</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="X15" t="n">
-        <v>236.220867819218</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="Y15" t="n">
-        <v>159.5058548875416</v>
+        <v>82.7908419558651</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.075829024188771</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="C16" t="n">
-        <v>6.075829024188771</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="D16" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="E16" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="F16" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="G16" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="H16" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="I16" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="J16" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="K16" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="L16" t="n">
-        <v>81.2642131985248</v>
+        <v>81.26421319852473</v>
       </c>
       <c r="M16" t="n">
-        <v>156.4525973728609</v>
+        <v>87.72407226073392</v>
       </c>
       <c r="N16" t="n">
-        <v>228.0656507727003</v>
+        <v>97.21262830484767</v>
       </c>
       <c r="O16" t="n">
-        <v>228.6030670351025</v>
+        <v>172.4010124791836</v>
       </c>
       <c r="P16" t="n">
-        <v>303.7914512094385</v>
+        <v>228.6030670351023</v>
       </c>
       <c r="Q16" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R16" t="n">
-        <v>303.7914512094385</v>
+        <v>236.7114236074884</v>
       </c>
       <c r="S16" t="n">
-        <v>227.0764382777621</v>
+        <v>159.9964106758121</v>
       </c>
       <c r="T16" t="n">
-        <v>150.3614253460857</v>
+        <v>159.9964106758121</v>
       </c>
       <c r="U16" t="n">
-        <v>73.64641241440928</v>
+        <v>159.9964106758121</v>
       </c>
       <c r="V16" t="n">
-        <v>6.075829024188771</v>
+        <v>159.9964106758121</v>
       </c>
       <c r="W16" t="n">
-        <v>6.075829024188771</v>
+        <v>159.9964106758121</v>
       </c>
       <c r="X16" t="n">
-        <v>6.075829024188771</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.075829024188771</v>
+        <v>159.5058548875414</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>715.1114365838775</v>
+        <v>713.7501395841768</v>
       </c>
       <c r="C17" t="n">
-        <v>493.3371361049925</v>
+        <v>713.7501395841768</v>
       </c>
       <c r="D17" t="n">
-        <v>271.5628356261075</v>
+        <v>713.7501395841768</v>
       </c>
       <c r="E17" t="n">
-        <v>49.78853514722245</v>
+        <v>713.7501395841768</v>
       </c>
       <c r="F17" t="n">
-        <v>49.78853514722245</v>
+        <v>323.6066968384973</v>
       </c>
       <c r="G17" t="n">
-        <v>49.78853514722245</v>
+        <v>323.6066968384973</v>
       </c>
       <c r="H17" t="n">
-        <v>49.78853514722245</v>
+        <v>34.08482848414409</v>
       </c>
       <c r="I17" t="n">
-        <v>17.56452459792769</v>
+        <v>34.08482848414409</v>
       </c>
       <c r="J17" t="n">
-        <v>61.76566646422691</v>
+        <v>135.2078042355292</v>
       </c>
       <c r="K17" t="n">
-        <v>148.560820047425</v>
+        <v>307.3140313492352</v>
       </c>
       <c r="L17" t="n">
-        <v>271.1830965723304</v>
+        <v>535.7722383098834</v>
       </c>
       <c r="M17" t="n">
-        <v>420.4501281543853</v>
+        <v>802.8021349023155</v>
       </c>
       <c r="N17" t="n">
-        <v>574.0010487547421</v>
+        <v>1076.021446786202</v>
       </c>
       <c r="O17" t="n">
-        <v>713.594048080966</v>
+        <v>1328.613914605402</v>
       </c>
       <c r="P17" t="n">
-        <v>818.760538059841</v>
+        <v>1530.222836607931</v>
       </c>
       <c r="Q17" t="n">
-        <v>878.2262298963844</v>
+        <v>1662.112778450607</v>
       </c>
       <c r="R17" t="n">
-        <v>878.2262298963846</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="S17" t="n">
-        <v>878.2262298963846</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="T17" t="n">
-        <v>878.2262298963846</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="U17" t="n">
-        <v>878.2262298963846</v>
+        <v>1447.347995112528</v>
       </c>
       <c r="V17" t="n">
-        <v>878.2262298963846</v>
+        <v>1097.510440449008</v>
       </c>
       <c r="W17" t="n">
-        <v>878.2262298963846</v>
+        <v>713.7501395841768</v>
       </c>
       <c r="X17" t="n">
-        <v>878.2262298963846</v>
+        <v>713.7501395841768</v>
       </c>
       <c r="Y17" t="n">
-        <v>878.2262298963846</v>
+        <v>713.7501395841768</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>115.5535931284699</v>
+        <v>603.9884524911184</v>
       </c>
       <c r="C18" t="n">
-        <v>17.56452459792769</v>
+        <v>469.9933812400641</v>
       </c>
       <c r="D18" t="n">
-        <v>17.56452459792769</v>
+        <v>353.0962234594566</v>
       </c>
       <c r="E18" t="n">
-        <v>17.56452459792769</v>
+        <v>232.6034074517845</v>
       </c>
       <c r="F18" t="n">
-        <v>17.56452459792769</v>
+        <v>123.6435276342891</v>
       </c>
       <c r="G18" t="n">
-        <v>17.56452459792769</v>
+        <v>94.04098642631027</v>
       </c>
       <c r="H18" t="n">
-        <v>17.56452459792769</v>
+        <v>34.08482848414409</v>
       </c>
       <c r="I18" t="n">
-        <v>17.56452459792769</v>
+        <v>34.08482848414409</v>
       </c>
       <c r="J18" t="n">
-        <v>36.26919386777737</v>
+        <v>330.3601560369833</v>
       </c>
       <c r="K18" t="n">
-        <v>108.989276235964</v>
+        <v>451.9264715532381</v>
       </c>
       <c r="L18" t="n">
-        <v>213.297486137759</v>
+        <v>634.1480141478131</v>
       </c>
       <c r="M18" t="n">
-        <v>342.8597788025052</v>
+        <v>854.6314911305454</v>
       </c>
       <c r="N18" t="n">
-        <v>560.2207707018604</v>
+        <v>1086.786010870827</v>
       </c>
       <c r="O18" t="n">
-        <v>678.2212654349596</v>
+        <v>1290.163024310829</v>
       </c>
       <c r="P18" t="n">
-        <v>765.0971737371243</v>
+        <v>1445.561115802131</v>
       </c>
       <c r="Q18" t="n">
-        <v>802.9541431881224</v>
+        <v>1694.659665275812</v>
       </c>
       <c r="R18" t="n">
-        <v>878.2262298963846</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="S18" t="n">
-        <v>878.2262298963846</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="T18" t="n">
-        <v>878.2262298963846</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="U18" t="n">
-        <v>878.2262298963846</v>
+        <v>1506.96412189462</v>
       </c>
       <c r="V18" t="n">
-        <v>664.5147028894183</v>
+        <v>1293.252594887654</v>
       </c>
       <c r="W18" t="n">
-        <v>451.2815346257471</v>
+        <v>1080.019426623982</v>
       </c>
       <c r="X18" t="n">
-        <v>274.9555527646399</v>
+        <v>903.6934447628751</v>
       </c>
       <c r="Y18" t="n">
-        <v>115.5535931284699</v>
+        <v>744.2914851267051</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>190.0226979019596</v>
+        <v>630.5645788681145</v>
       </c>
       <c r="C19" t="n">
-        <v>18.92932546367612</v>
+        <v>459.471206429831</v>
       </c>
       <c r="D19" t="n">
-        <v>18.92932546367612</v>
+        <v>459.471206429831</v>
       </c>
       <c r="E19" t="n">
-        <v>18.92932546367612</v>
+        <v>298.5603912981505</v>
       </c>
       <c r="F19" t="n">
-        <v>18.92932546367612</v>
+        <v>298.5603912981505</v>
       </c>
       <c r="G19" t="n">
-        <v>18.92932546367612</v>
+        <v>175.3638855604871</v>
       </c>
       <c r="H19" t="n">
-        <v>18.92932546367612</v>
+        <v>34.08482848414409</v>
       </c>
       <c r="I19" t="n">
-        <v>17.56452459792769</v>
+        <v>34.08482848414409</v>
       </c>
       <c r="J19" t="n">
-        <v>17.56452459792769</v>
+        <v>113.0764066390025</v>
       </c>
       <c r="K19" t="n">
-        <v>234.9255164972829</v>
+        <v>374.2942078626549</v>
       </c>
       <c r="L19" t="n">
-        <v>272.6123119052248</v>
+        <v>770.6863905873267</v>
       </c>
       <c r="M19" t="n">
-        <v>424.0722475055946</v>
+        <v>1192.48614307861</v>
       </c>
       <c r="N19" t="n">
-        <v>641.4332394049499</v>
+        <v>1281.783575155893</v>
       </c>
       <c r="O19" t="n">
-        <v>858.7942313043051</v>
+        <v>1356.037405875833</v>
       </c>
       <c r="P19" t="n">
-        <v>878.2262298963846</v>
+        <v>1561.835798440567</v>
       </c>
       <c r="Q19" t="n">
-        <v>878.2262298963846</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="R19" t="n">
-        <v>821.2710052537741</v>
+        <v>1661.087578165445</v>
       </c>
       <c r="S19" t="n">
-        <v>821.2710052537741</v>
+        <v>1661.087578165445</v>
       </c>
       <c r="T19" t="n">
-        <v>821.2710052537741</v>
+        <v>1425.541239055802</v>
       </c>
       <c r="U19" t="n">
-        <v>821.2710052537741</v>
+        <v>1142.794186068909</v>
       </c>
       <c r="V19" t="n">
-        <v>599.4967047748891</v>
+        <v>868.9084410084311</v>
       </c>
       <c r="W19" t="n">
-        <v>377.722404296004</v>
+        <v>868.9084410084311</v>
       </c>
       <c r="X19" t="n">
-        <v>377.722404296004</v>
+        <v>630.5645788681145</v>
       </c>
       <c r="Y19" t="n">
-        <v>377.722404296004</v>
+        <v>630.5645788681145</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>49.78853514722242</v>
+        <v>1046.70459728148</v>
       </c>
       <c r="C20" t="n">
-        <v>49.78853514722242</v>
+        <v>1046.70459728148</v>
       </c>
       <c r="D20" t="n">
-        <v>49.78853514722242</v>
+        <v>750.4803384088253</v>
       </c>
       <c r="E20" t="n">
-        <v>49.78853514722242</v>
+        <v>750.4803384088253</v>
       </c>
       <c r="F20" t="n">
-        <v>49.78853514722242</v>
+        <v>329.4499263625129</v>
       </c>
       <c r="G20" t="n">
-        <v>49.78853514722242</v>
+        <v>329.4499263625129</v>
       </c>
       <c r="H20" t="n">
-        <v>49.78853514722242</v>
+        <v>39.92805800815965</v>
       </c>
       <c r="I20" t="n">
-        <v>17.56452459792769</v>
+        <v>34.08482848414408</v>
       </c>
       <c r="J20" t="n">
-        <v>61.76566646422707</v>
+        <v>135.2078042355286</v>
       </c>
       <c r="K20" t="n">
-        <v>148.5608200474252</v>
+        <v>307.3140313492344</v>
       </c>
       <c r="L20" t="n">
-        <v>271.1830965723307</v>
+        <v>535.7722383098826</v>
       </c>
       <c r="M20" t="n">
-        <v>420.4501281543857</v>
+        <v>802.8021349023151</v>
       </c>
       <c r="N20" t="n">
-        <v>574.0010487547424</v>
+        <v>1076.021446786202</v>
       </c>
       <c r="O20" t="n">
-        <v>713.5940480809666</v>
+        <v>1328.613914605402</v>
       </c>
       <c r="P20" t="n">
-        <v>818.760538059841</v>
+        <v>1530.222836607931</v>
       </c>
       <c r="Q20" t="n">
-        <v>878.2262298963846</v>
+        <v>1662.112778450607</v>
       </c>
       <c r="R20" t="n">
-        <v>878.2262298963844</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="S20" t="n">
-        <v>878.2262298963844</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="T20" t="n">
-        <v>878.2262298963844</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="U20" t="n">
-        <v>878.2262298963844</v>
+        <v>1447.347995112527</v>
       </c>
       <c r="V20" t="n">
-        <v>878.2262298963844</v>
+        <v>1447.347995112527</v>
       </c>
       <c r="W20" t="n">
-        <v>656.4519294174995</v>
+        <v>1447.347995112527</v>
       </c>
       <c r="X20" t="n">
-        <v>493.3371361049924</v>
+        <v>1046.70459728148</v>
       </c>
       <c r="Y20" t="n">
-        <v>271.5628356261074</v>
+        <v>1046.70459728148</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>187.2955671289025</v>
+        <v>680.2586940210067</v>
       </c>
       <c r="C21" t="n">
-        <v>187.2955671289025</v>
+        <v>546.2636227699523</v>
       </c>
       <c r="D21" t="n">
-        <v>187.2955671289025</v>
+        <v>429.3664649893448</v>
       </c>
       <c r="E21" t="n">
-        <v>187.2955671289025</v>
+        <v>308.8736489816728</v>
       </c>
       <c r="F21" t="n">
-        <v>187.2955671289025</v>
+        <v>199.9137691641773</v>
       </c>
       <c r="G21" t="n">
-        <v>81.05666125440382</v>
+        <v>94.04098642631025</v>
       </c>
       <c r="H21" t="n">
-        <v>17.56452459792769</v>
+        <v>34.08482848414408</v>
       </c>
       <c r="I21" t="n">
-        <v>17.56452459792769</v>
+        <v>51.45306561841116</v>
       </c>
       <c r="J21" t="n">
-        <v>111.3747703594906</v>
+        <v>347.7283931712503</v>
       </c>
       <c r="K21" t="n">
-        <v>174.9967333911463</v>
+        <v>469.2947086875051</v>
       </c>
       <c r="L21" t="n">
-        <v>279.3049432929413</v>
+        <v>651.5162512820801</v>
       </c>
       <c r="M21" t="n">
-        <v>496.6659351922965</v>
+        <v>871.9997282648125</v>
       </c>
       <c r="N21" t="n">
-        <v>635.4928574101223</v>
+        <v>1104.154248005094</v>
       </c>
       <c r="O21" t="n">
-        <v>753.4933521432215</v>
+        <v>1307.531261445096</v>
       </c>
       <c r="P21" t="n">
-        <v>840.3692604453863</v>
+        <v>1462.929352936398</v>
       </c>
       <c r="Q21" t="n">
-        <v>878.2262298963844</v>
+        <v>1694.659665275812</v>
       </c>
       <c r="R21" t="n">
-        <v>878.2262298963844</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="S21" t="n">
-        <v>878.2262298963844</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="T21" t="n">
-        <v>721.9122566950526</v>
+        <v>1549.403184175014</v>
       </c>
       <c r="U21" t="n">
-        <v>614.2402623995399</v>
+        <v>1549.403184175014</v>
       </c>
       <c r="V21" t="n">
-        <v>400.5287353925737</v>
+        <v>1335.691657168048</v>
       </c>
       <c r="W21" t="n">
-        <v>187.2955671289025</v>
+        <v>1156.28966815387</v>
       </c>
       <c r="X21" t="n">
-        <v>187.2955671289025</v>
+        <v>979.9636862927633</v>
       </c>
       <c r="Y21" t="n">
-        <v>187.2955671289025</v>
+        <v>820.5617266565934</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.9711711608028</v>
+        <v>743.2445459359299</v>
       </c>
       <c r="C22" t="n">
-        <v>114.9711711608028</v>
+        <v>572.1511734976464</v>
       </c>
       <c r="D22" t="n">
-        <v>114.9711711608028</v>
+        <v>412.6565288205564</v>
       </c>
       <c r="E22" t="n">
-        <v>114.9711711608028</v>
+        <v>251.7457136888759</v>
       </c>
       <c r="F22" t="n">
-        <v>114.9711711608028</v>
+        <v>87.11458779946713</v>
       </c>
       <c r="G22" t="n">
-        <v>114.9711711608028</v>
+        <v>34.08482848414408</v>
       </c>
       <c r="H22" t="n">
-        <v>114.9711711608028</v>
+        <v>34.08482848414408</v>
       </c>
       <c r="I22" t="n">
-        <v>17.56452459792769</v>
+        <v>34.08482848414408</v>
       </c>
       <c r="J22" t="n">
-        <v>75.28691789969612</v>
+        <v>113.0764066390025</v>
       </c>
       <c r="K22" t="n">
-        <v>141.8270608452988</v>
+        <v>374.2942078626549</v>
       </c>
       <c r="L22" t="n">
-        <v>359.188052744654</v>
+        <v>770.6863905873267</v>
       </c>
       <c r="M22" t="n">
-        <v>400.2430990444439</v>
+        <v>1010.433352578668</v>
       </c>
       <c r="N22" t="n">
-        <v>443.5042460976741</v>
+        <v>1431.765086103537</v>
       </c>
       <c r="O22" t="n">
-        <v>660.8652379970292</v>
+        <v>1506.018916823477</v>
       </c>
       <c r="P22" t="n">
-        <v>878.2262298963844</v>
+        <v>1561.835798440567</v>
       </c>
       <c r="Q22" t="n">
-        <v>878.2262298963844</v>
+        <v>1704.241424207204</v>
       </c>
       <c r="R22" t="n">
-        <v>878.2262298963844</v>
+        <v>1661.087578165445</v>
       </c>
       <c r="S22" t="n">
-        <v>878.2262298963844</v>
+        <v>1491.020492246368</v>
       </c>
       <c r="T22" t="n">
-        <v>878.2262298963844</v>
+        <v>1255.474153136724</v>
       </c>
       <c r="U22" t="n">
-        <v>656.4519294174995</v>
+        <v>1255.474153136724</v>
       </c>
       <c r="V22" t="n">
-        <v>656.4519294174995</v>
+        <v>981.5884080762464</v>
       </c>
       <c r="W22" t="n">
-        <v>434.6776289386145</v>
+        <v>981.5884080762464</v>
       </c>
       <c r="X22" t="n">
-        <v>212.9033284597296</v>
+        <v>743.2445459359299</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.9711711608028</v>
+        <v>743.2445459359299</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>875.8570644754844</v>
+        <v>804.7554389797236</v>
       </c>
       <c r="C23" t="n">
-        <v>875.8570644754844</v>
+        <v>804.7554389797236</v>
       </c>
       <c r="D23" t="n">
-        <v>875.8570644754844</v>
+        <v>804.7554389797236</v>
       </c>
       <c r="E23" t="n">
-        <v>461.5168489923811</v>
+        <v>804.7554389797236</v>
       </c>
       <c r="F23" t="n">
-        <v>40.48643694606872</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G23" t="n">
-        <v>40.48643694606872</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H23" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I23" t="n">
-        <v>44.64574590746552</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J23" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K23" t="n">
-        <v>372.2593058752968</v>
+        <v>372.259305875296</v>
       </c>
       <c r="L23" t="n">
-        <v>641.1850750879082</v>
+        <v>641.1850750879073</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N23" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O23" t="n">
         <v>1568.017893256777</v>
@@ -6010,31 +6010,31 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q23" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R23" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S23" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T23" t="n">
-        <v>1730.670028080286</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U23" t="n">
-        <v>1473.79753042052</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V23" t="n">
-        <v>1276.793737527394</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="W23" t="n">
-        <v>1276.793737527394</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="X23" t="n">
-        <v>1276.793737527394</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="Y23" t="n">
-        <v>875.8570644754844</v>
+        <v>804.7554389797236</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090089</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579547</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773471</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696751</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521797</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H24" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I24" t="n">
         <v>43.01083102505505</v>
       </c>
       <c r="J24" t="n">
-        <v>108.5806640902073</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K24" t="n">
-        <v>506.5532868898609</v>
+        <v>752.3247263384928</v>
       </c>
       <c r="L24" t="n">
-        <v>718.5658714115182</v>
+        <v>964.3373108601501</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.585528619119</v>
+        <v>1219.585528619118</v>
       </c>
       <c r="N24" t="n">
-        <v>1487.424908378268</v>
+        <v>1487.424908378267</v>
       </c>
       <c r="O24" t="n">
         <v>1723.446597132247</v>
@@ -6110,10 +6110,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807655</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445956</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="25">
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>691.4062897392627</v>
+        <v>560.8234618997368</v>
       </c>
       <c r="C25" t="n">
-        <v>520.3129173009792</v>
+        <v>389.7300894614533</v>
       </c>
       <c r="D25" t="n">
-        <v>520.3129173009792</v>
+        <v>230.2354447843633</v>
       </c>
       <c r="E25" t="n">
-        <v>371.3138580013656</v>
+        <v>69.3246296526828</v>
       </c>
       <c r="F25" t="n">
-        <v>206.6827321119568</v>
+        <v>69.3246296526828</v>
       </c>
       <c r="G25" t="n">
-        <v>40.48643694606872</v>
+        <v>69.3246296526828</v>
       </c>
       <c r="H25" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I25" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J25" t="n">
-        <v>62.6091642990925</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K25" t="n">
-        <v>177.3984040230868</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L25" t="n">
-        <v>590.8921830977228</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M25" t="n">
-        <v>697.1360519693178</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N25" t="n">
-        <v>1136.070278545364</v>
+        <v>1373.796468531156</v>
       </c>
       <c r="O25" t="n">
-        <v>1541.657620062866</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P25" t="n">
         <v>1872.28415574375</v>
@@ -6174,25 +6174,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>1856.300096062672</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T25" t="n">
-        <v>1621.255221375985</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U25" t="n">
-        <v>1621.255221375985</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V25" t="n">
-        <v>1621.255221375985</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W25" t="n">
-        <v>1342.185556884859</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="X25" t="n">
-        <v>1103.841694744542</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.105996133307</v>
+        <v>560.8234618997368</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>871.641439679111</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="C26" t="n">
-        <v>461.5168489923811</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="D26" t="n">
-        <v>461.5168489923811</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="E26" t="n">
-        <v>461.5168489923811</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="F26" t="n">
-        <v>40.48643694606871</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G26" t="n">
         <v>40.48643694606871</v>
@@ -6223,10 +6223,10 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I26" t="n">
-        <v>44.64574590746552</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J26" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K26" t="n">
         <v>372.2593058752964</v>
@@ -6235,10 +6235,10 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N26" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O26" t="n">
         <v>1568.017893256777</v>
@@ -6253,25 +6253,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T26" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U26" t="n">
-        <v>1730.670028080285</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="V26" t="n">
-        <v>1380.832473416766</v>
+        <v>1417.611794980151</v>
       </c>
       <c r="W26" t="n">
-        <v>1281.8626193436</v>
+        <v>1033.851494115319</v>
       </c>
       <c r="X26" t="n">
-        <v>1281.8626193436</v>
+        <v>1033.851494115319</v>
       </c>
       <c r="Y26" t="n">
-        <v>1281.8626193436</v>
+        <v>632.9148210634095</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>490.5013510001846</v>
+        <v>839.0523854087232</v>
       </c>
       <c r="C28" t="n">
-        <v>490.5013510001846</v>
+        <v>667.9590129704397</v>
       </c>
       <c r="D28" t="n">
-        <v>490.5013510001846</v>
+        <v>508.4643682933498</v>
       </c>
       <c r="E28" t="n">
-        <v>490.5013510001846</v>
+        <v>347.5535531616692</v>
       </c>
       <c r="F28" t="n">
-        <v>431.5648235283147</v>
+        <v>182.9224272722605</v>
       </c>
       <c r="G28" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H28" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I28" t="n">
         <v>40.48643694606871</v>
@@ -6396,10 +6396,10 @@
         <v>1266.896543402695</v>
       </c>
       <c r="N28" t="n">
-        <v>1451.145037964104</v>
+        <v>1705.830769978741</v>
       </c>
       <c r="O28" t="n">
-        <v>1541.657620062865</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P28" t="n">
         <v>1872.28415574375</v>
@@ -6408,28 +6408,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R28" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S28" t="n">
-        <v>2024.321847303436</v>
+        <v>1818.423362863341</v>
       </c>
       <c r="T28" t="n">
-        <v>1789.276972616749</v>
+        <v>1583.378488176654</v>
       </c>
       <c r="U28" t="n">
-        <v>1506.53632130334</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V28" t="n">
-        <v>1232.650576242862</v>
+        <v>1026.752091802768</v>
       </c>
       <c r="W28" t="n">
-        <v>953.5809117517365</v>
+        <v>1026.752091802768</v>
       </c>
       <c r="X28" t="n">
-        <v>715.2370496114199</v>
+        <v>1026.752091802768</v>
       </c>
       <c r="Y28" t="n">
-        <v>490.5013510001846</v>
+        <v>1026.752091802768</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>855.0749575397381</v>
+        <v>1285.981655162214</v>
       </c>
       <c r="C29" t="n">
-        <v>444.9503668530082</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="D29" t="n">
-        <v>40.48643694606871</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E29" t="n">
-        <v>40.48643694606871</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F29" t="n">
         <v>40.48643694606871</v>
@@ -6460,22 +6460,22 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746552</v>
+        <v>44.6457459074655</v>
       </c>
       <c r="J29" t="n">
         <v>167.5334271492898</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L29" t="n">
         <v>641.1850750879075</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N29" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O29" t="n">
         <v>1568.017893256777</v>
@@ -6487,28 +6487,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R29" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S29" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="T29" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="U29" t="n">
-        <v>1767.44934964367</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="V29" t="n">
-        <v>1417.611794980151</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="W29" t="n">
-        <v>1265.296137204228</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="X29" t="n">
-        <v>1265.296137204228</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="Y29" t="n">
-        <v>1265.296137204228</v>
+        <v>1696.202834826704</v>
       </c>
     </row>
     <row r="30">
@@ -6539,34 +6539,34 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J30" t="n">
-        <v>352.2490680648406</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K30" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L30" t="n">
-        <v>707.9836451177894</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M30" t="n">
-        <v>963.2318628767574</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N30" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O30" t="n">
-        <v>1467.092931389886</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.691252826069</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q30" t="n">
-        <v>1918.251596225539</v>
+        <v>2006.22131270252</v>
       </c>
       <c r="R30" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S30" t="n">
         <v>1939.686028373151</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.90316016604541</v>
+        <v>875.4350093110235</v>
       </c>
       <c r="C31" t="n">
-        <v>40.48643694606871</v>
+        <v>704.34163687274</v>
       </c>
       <c r="D31" t="n">
-        <v>40.48643694606871</v>
+        <v>544.84699219565</v>
       </c>
       <c r="E31" t="n">
-        <v>40.48643694606871</v>
+        <v>383.9361770639695</v>
       </c>
       <c r="F31" t="n">
-        <v>40.48643694606871</v>
+        <v>219.3050511745608</v>
       </c>
       <c r="G31" t="n">
-        <v>40.48643694606871</v>
+        <v>53.10875600867269</v>
       </c>
       <c r="H31" t="n">
-        <v>40.48643694606871</v>
+        <v>53.10875600867269</v>
       </c>
       <c r="I31" t="n">
         <v>40.48643694606871</v>
@@ -6630,43 +6630,43 @@
         <v>815.6863250168145</v>
       </c>
       <c r="M31" t="n">
-        <v>1266.896543402695</v>
+        <v>921.9301938884096</v>
       </c>
       <c r="N31" t="n">
-        <v>1705.830769978741</v>
+        <v>1136.070278545363</v>
       </c>
       <c r="O31" t="n">
-        <v>1796.343352077502</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P31" t="n">
         <v>1872.28415574375</v>
       </c>
       <c r="Q31" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104105</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S31" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T31" t="n">
-        <v>1583.378488176654</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U31" t="n">
-        <v>1300.637836863245</v>
+        <v>1338.514570062575</v>
       </c>
       <c r="V31" t="n">
-        <v>1026.752091802767</v>
+        <v>1338.514570062575</v>
       </c>
       <c r="W31" t="n">
-        <v>747.6824273116417</v>
+        <v>1338.514570062575</v>
       </c>
       <c r="X31" t="n">
-        <v>509.3385651713251</v>
+        <v>1100.170707922259</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6028665600898</v>
+        <v>875.4350093110235</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>551.4759600096388</v>
+        <v>733.707112676266</v>
       </c>
       <c r="C32" t="n">
-        <v>551.4759600096388</v>
+        <v>733.707112676266</v>
       </c>
       <c r="D32" t="n">
-        <v>551.4759600096388</v>
+        <v>733.707112676266</v>
       </c>
       <c r="E32" t="n">
-        <v>551.4759600096388</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F32" t="n">
-        <v>446.8647950441848</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G32" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H32" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746588</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492902</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752968</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L32" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501308</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576257</v>
@@ -6721,31 +6721,31 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q32" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R32" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S32" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T32" t="n">
-        <v>1942.589711028803</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U32" t="n">
-        <v>1685.717213369037</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="V32" t="n">
-        <v>1335.879658705518</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="W32" t="n">
-        <v>952.1193578406862</v>
+        <v>1078.804308826568</v>
       </c>
       <c r="X32" t="n">
-        <v>551.4759600096388</v>
+        <v>1078.804308826568</v>
       </c>
       <c r="Y32" t="n">
-        <v>551.4759600096388</v>
+        <v>733.707112676266</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H33" t="n">
         <v>40.48643694606871</v>
@@ -6779,25 +6779,25 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J33" t="n">
-        <v>371.816871914538</v>
+        <v>128.1484679399047</v>
       </c>
       <c r="K33" t="n">
-        <v>515.5388644458295</v>
+        <v>271.8704604711962</v>
       </c>
       <c r="L33" t="n">
-        <v>876.3675943831691</v>
+        <v>483.8830449928535</v>
       </c>
       <c r="M33" t="n">
-        <v>1131.615812142137</v>
+        <v>739.1312627518215</v>
       </c>
       <c r="N33" t="n">
-        <v>1399.455191901286</v>
+        <v>1006.970642510971</v>
       </c>
       <c r="O33" t="n">
-        <v>1635.476880655266</v>
+        <v>1242.99233126495</v>
       </c>
       <c r="P33" t="n">
-        <v>1817.075202091449</v>
+        <v>1424.590652701133</v>
       </c>
       <c r="Q33" t="n">
         <v>1918.251596225539</v>
@@ -6821,10 +6821,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>585.5422959195488</v>
+        <v>691.7193178101361</v>
       </c>
       <c r="C34" t="n">
-        <v>424.8631730395165</v>
+        <v>691.7193178101361</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3685283624266</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3685283624266</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3685283624266</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G34" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H34" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I34" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J34" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K34" t="n">
-        <v>402.1925459421785</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L34" t="n">
-        <v>815.6863250168145</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M34" t="n">
-        <v>1266.896543402695</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.145037964104</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O34" t="n">
-        <v>1541.657620062865</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P34" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q34" t="n">
         <v>2024.321847303436</v>
@@ -6885,25 +6885,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S34" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T34" t="n">
-        <v>1789.276972616749</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U34" t="n">
-        <v>1789.276972616749</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V34" t="n">
-        <v>1515.391227556271</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="W34" t="n">
-        <v>1236.321563065145</v>
+        <v>1059.44490557145</v>
       </c>
       <c r="X34" t="n">
-        <v>997.9777009248285</v>
+        <v>916.4550164213714</v>
       </c>
       <c r="Y34" t="n">
-        <v>773.2420023135932</v>
+        <v>691.7193178101361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>444.9503668530082</v>
+        <v>997.0721725519347</v>
       </c>
       <c r="C35" t="n">
-        <v>444.9503668530082</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="D35" t="n">
-        <v>40.48643694606871</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="E35" t="n">
-        <v>40.48643694606871</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="F35" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G35" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H35" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746553</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K35" t="n">
         <v>372.2593058752964</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879076</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N35" t="n">
         <v>1272.218803576257</v>
@@ -6964,25 +6964,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U35" t="n">
-        <v>1980.128293264316</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="V35" t="n">
-        <v>1630.290738600797</v>
+        <v>1380.832473416766</v>
       </c>
       <c r="W35" t="n">
-        <v>1246.530437735966</v>
+        <v>997.0721725519347</v>
       </c>
       <c r="X35" t="n">
-        <v>845.8870399049181</v>
+        <v>997.0721725519347</v>
       </c>
       <c r="Y35" t="n">
-        <v>444.9503668530082</v>
+        <v>997.0721725519347</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I36" t="n">
-        <v>62.57863487475244</v>
+        <v>55.21992119155775</v>
       </c>
       <c r="J36" t="n">
-        <v>371.816871914538</v>
+        <v>120.78975425671</v>
       </c>
       <c r="K36" t="n">
-        <v>664.3550098615119</v>
+        <v>264.5117467880015</v>
       </c>
       <c r="L36" t="n">
-        <v>876.3675943831691</v>
+        <v>476.5243313096588</v>
       </c>
       <c r="M36" t="n">
-        <v>1131.615812142137</v>
+        <v>731.7725490686269</v>
       </c>
       <c r="N36" t="n">
-        <v>1399.455191901286</v>
+        <v>999.6119288277761</v>
       </c>
       <c r="O36" t="n">
-        <v>1635.476880655266</v>
+        <v>1235.633617581756</v>
       </c>
       <c r="P36" t="n">
-        <v>1817.075202091449</v>
+        <v>1417.231939017938</v>
       </c>
       <c r="Q36" t="n">
         <v>1918.251596225539</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.694781664777</v>
+        <v>585.7739881711971</v>
       </c>
       <c r="C37" t="n">
-        <v>916.6014092264938</v>
+        <v>585.7739881711971</v>
       </c>
       <c r="D37" t="n">
-        <v>757.1067645494038</v>
+        <v>426.2793434941071</v>
       </c>
       <c r="E37" t="n">
-        <v>596.1959494177233</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="F37" t="n">
-        <v>431.5648235283147</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="G37" t="n">
         <v>265.3685283624266</v>
@@ -7098,22 +7098,22 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K37" t="n">
-        <v>195.9123523564644</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L37" t="n">
-        <v>609.4061314311003</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M37" t="n">
-        <v>1060.616349816981</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N37" t="n">
-        <v>1499.550576393027</v>
+        <v>1396.967762018482</v>
       </c>
       <c r="O37" t="n">
-        <v>1905.137917910529</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P37" t="n">
-        <v>1998.558115949587</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q37" t="n">
         <v>2024.321847303436</v>
@@ -7128,19 +7128,19 @@
         <v>1583.378488176654</v>
       </c>
       <c r="U37" t="n">
-        <v>1583.378488176654</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V37" t="n">
-        <v>1583.378488176654</v>
+        <v>1026.752091802768</v>
       </c>
       <c r="W37" t="n">
-        <v>1583.378488176654</v>
+        <v>747.682427311642</v>
       </c>
       <c r="X37" t="n">
-        <v>1500.130186670057</v>
+        <v>747.682427311642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.394488058822</v>
+        <v>747.682427311642</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1623.678449472388</v>
+        <v>1148.047328159369</v>
       </c>
       <c r="C38" t="n">
-        <v>1623.678449472388</v>
+        <v>1148.047328159369</v>
       </c>
       <c r="D38" t="n">
-        <v>1219.214519565449</v>
+        <v>1148.047328159369</v>
       </c>
       <c r="E38" t="n">
-        <v>804.8743040823454</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F38" t="n">
-        <v>383.8438920360329</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G38" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H38" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746552</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492893</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752958</v>
       </c>
       <c r="L38" t="n">
-        <v>641.1850750879076</v>
+        <v>641.1850750879071</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N38" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O38" t="n">
         <v>1568.017893256777</v>
@@ -7195,31 +7195,31 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q38" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R38" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U38" t="n">
-        <v>2024.321847303436</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V38" t="n">
-        <v>2024.321847303436</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="W38" t="n">
-        <v>2024.321847303436</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="X38" t="n">
-        <v>1623.678449472388</v>
+        <v>1285.07381553799</v>
       </c>
       <c r="Y38" t="n">
-        <v>1623.678449472388</v>
+        <v>1285.07381553799</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C39" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579546</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773471</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696751</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521796</v>
       </c>
       <c r="G39" t="n">
         <v>99.09057352692761</v>
       </c>
       <c r="H39" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I39" t="n">
-        <v>62.57863487475244</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J39" t="n">
-        <v>128.1484679399047</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K39" t="n">
-        <v>629.168125147505</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L39" t="n">
-        <v>876.3675943831691</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M39" t="n">
-        <v>1131.615812142137</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N39" t="n">
-        <v>1399.455191901286</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O39" t="n">
-        <v>1635.476880655266</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P39" t="n">
-        <v>1817.075202091449</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q39" t="n">
         <v>1918.251596225539</v>
@@ -7295,10 +7295,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>431.5648235283147</v>
+        <v>379.6438114794545</v>
       </c>
       <c r="C40" t="n">
-        <v>431.5648235283147</v>
+        <v>208.550439041171</v>
       </c>
       <c r="D40" t="n">
-        <v>431.5648235283147</v>
+        <v>208.550439041171</v>
       </c>
       <c r="E40" t="n">
-        <v>431.5648235283147</v>
+        <v>208.550439041171</v>
       </c>
       <c r="F40" t="n">
-        <v>431.5648235283147</v>
+        <v>208.550439041171</v>
       </c>
       <c r="G40" t="n">
-        <v>265.3685283624266</v>
+        <v>42.35414387528289</v>
       </c>
       <c r="H40" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I40" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="J40" t="n">
-        <v>62.60916429909249</v>
+        <v>62.6091642990925</v>
       </c>
       <c r="K40" t="n">
-        <v>130.910988725128</v>
+        <v>337.1911823108421</v>
       </c>
       <c r="L40" t="n">
-        <v>544.4047677997639</v>
+        <v>590.8921830977228</v>
       </c>
       <c r="M40" t="n">
-        <v>995.6149861856445</v>
+        <v>697.1360519693178</v>
       </c>
       <c r="N40" t="n">
-        <v>1434.549212761691</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O40" t="n">
-        <v>1840.136554279192</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P40" t="n">
-        <v>1998.558115949587</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q40" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>1986.445114104105</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S40" t="n">
-        <v>1986.445114104105</v>
+        <v>1818.423362863341</v>
       </c>
       <c r="T40" t="n">
-        <v>1918.040151538923</v>
+        <v>1583.378488176654</v>
       </c>
       <c r="U40" t="n">
-        <v>1635.299500225515</v>
+        <v>1583.378488176654</v>
       </c>
       <c r="V40" t="n">
-        <v>1361.413755165037</v>
+        <v>1309.492743116176</v>
       </c>
       <c r="W40" t="n">
-        <v>1082.344090673911</v>
+        <v>1030.423078625051</v>
       </c>
       <c r="X40" t="n">
-        <v>844.0002285335944</v>
+        <v>792.0792164847342</v>
       </c>
       <c r="Y40" t="n">
-        <v>619.2645299223591</v>
+        <v>567.3435178734989</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>867.8952070904973</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="C41" t="n">
-        <v>867.8952070904973</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="D41" t="n">
-        <v>867.8952070904973</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="E41" t="n">
-        <v>867.8952070904973</v>
+        <v>1059.457314937416</v>
       </c>
       <c r="F41" t="n">
-        <v>446.8647950441848</v>
+        <v>638.4269028911035</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H41" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074655</v>
       </c>
       <c r="J41" t="n">
         <v>167.5334271492898</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N41" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O41" t="n">
         <v>1568.017893256777</v>
@@ -7435,28 +7435,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S41" t="n">
-        <v>1942.589711028803</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="T41" t="n">
         <v>1730.670028080285</v>
       </c>
       <c r="U41" t="n">
-        <v>1473.79753042052</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="V41" t="n">
-        <v>1473.79753042052</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="W41" t="n">
-        <v>1268.538604921545</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="X41" t="n">
-        <v>867.8952070904973</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="Y41" t="n">
-        <v>867.8952070904973</v>
+        <v>1473.797530420519</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H42" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I42" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J42" t="n">
-        <v>352.2490680648406</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K42" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L42" t="n">
-        <v>707.9836451177894</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M42" t="n">
-        <v>963.2318628767574</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N42" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O42" t="n">
-        <v>1467.092931389886</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.691252826069</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q42" t="n">
-        <v>1918.251596225539</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R42" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S42" t="n">
         <v>1939.686028373151</v>
@@ -7532,10 +7532,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X42" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.4072304396491</v>
+        <v>1003.048274546781</v>
       </c>
       <c r="C43" t="n">
-        <v>371.3138580013656</v>
+        <v>831.9549021084979</v>
       </c>
       <c r="D43" t="n">
-        <v>371.3138580013656</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="E43" t="n">
-        <v>371.3138580013656</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="F43" t="n">
-        <v>206.6827321119568</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G43" t="n">
-        <v>40.48643694606871</v>
+        <v>180.7220212444304</v>
       </c>
       <c r="H43" t="n">
         <v>40.48643694606871</v>
@@ -7569,52 +7569,52 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J43" t="n">
-        <v>62.60916429909249</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>337.1911823108421</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L43" t="n">
-        <v>750.6849613854781</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M43" t="n">
-        <v>1201.895179771359</v>
+        <v>921.9301938884096</v>
       </c>
       <c r="N43" t="n">
-        <v>1640.829406347405</v>
+        <v>1136.070278545363</v>
       </c>
       <c r="O43" t="n">
-        <v>1731.341988446166</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P43" t="n">
-        <v>1998.558115949587</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q43" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R43" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S43" t="n">
-        <v>1856.300096062671</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T43" t="n">
-        <v>1746.141907136849</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.141907136849</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="V43" t="n">
-        <v>1472.256162076371</v>
+        <v>1750.436102242957</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.186497585245</v>
+        <v>1653.827541692378</v>
       </c>
       <c r="X43" t="n">
-        <v>954.8426354449288</v>
+        <v>1415.483679552061</v>
       </c>
       <c r="Y43" t="n">
-        <v>730.1069368336935</v>
+        <v>1190.747980940826</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1280.320994382424</v>
+        <v>723.3165779259532</v>
       </c>
       <c r="C44" t="n">
-        <v>1280.320994382424</v>
+        <v>723.3165779259532</v>
       </c>
       <c r="D44" t="n">
-        <v>875.8570644754845</v>
+        <v>723.3165779259532</v>
       </c>
       <c r="E44" t="n">
-        <v>461.5168489923812</v>
+        <v>723.3165779259532</v>
       </c>
       <c r="F44" t="n">
-        <v>40.48643694606873</v>
+        <v>302.2861658796407</v>
       </c>
       <c r="G44" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H44" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746558</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J44" t="n">
-        <v>167.53342714929</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K44" t="n">
         <v>372.2593058752964</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879073</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501302</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N44" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O44" t="n">
         <v>1568.017893256777</v>
@@ -7669,31 +7669,31 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q44" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R44" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S44" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T44" t="n">
-        <v>1812.402164354919</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U44" t="n">
-        <v>1812.402164354919</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V44" t="n">
-        <v>1812.402164354919</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="W44" t="n">
-        <v>1690.542174046913</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="X44" t="n">
-        <v>1690.542174046913</v>
+        <v>723.3165779259532</v>
       </c>
       <c r="Y44" t="n">
-        <v>1690.542174046913</v>
+        <v>723.3165779259532</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G45" t="n">
         <v>99.09057352692761</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I45" t="n">
-        <v>43.01083102505508</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J45" t="n">
-        <v>352.2490680648407</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K45" t="n">
-        <v>495.9710605961322</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L45" t="n">
-        <v>707.9836451177896</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M45" t="n">
-        <v>963.2318628767578</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N45" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O45" t="n">
-        <v>1467.092931389887</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P45" t="n">
-        <v>1648.69125282607</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R45" t="n">
         <v>2024.321847303436</v>
@@ -7757,7 +7757,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T45" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U45" t="n">
         <v>1588.14395921251</v>
@@ -7769,10 +7769,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>431.5648235283147</v>
+        <v>490.5013510001849</v>
       </c>
       <c r="C46" t="n">
-        <v>431.5648235283147</v>
+        <v>490.5013510001849</v>
       </c>
       <c r="D46" t="n">
-        <v>431.5648235283147</v>
+        <v>331.0067063230949</v>
       </c>
       <c r="E46" t="n">
-        <v>431.5648235283147</v>
+        <v>170.0958911914144</v>
       </c>
       <c r="F46" t="n">
-        <v>431.5648235283147</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="G46" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H46" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I46" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="J46" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>402.1925459421786</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L46" t="n">
-        <v>815.6863250168147</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M46" t="n">
-        <v>921.9301938884099</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N46" t="n">
-        <v>1136.070278545364</v>
+        <v>1705.830769978741</v>
       </c>
       <c r="O46" t="n">
-        <v>1541.657620062866</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P46" t="n">
-        <v>1872.284155743751</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R46" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>1818.423362863342</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T46" t="n">
-        <v>1583.378488176655</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U46" t="n">
-        <v>1300.637836863246</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V46" t="n">
-        <v>1026.752091802768</v>
+        <v>1232.650576242862</v>
       </c>
       <c r="W46" t="n">
-        <v>747.6824273116424</v>
+        <v>953.5809117517367</v>
       </c>
       <c r="X46" t="n">
-        <v>509.3385651713258</v>
+        <v>715.2370496114202</v>
       </c>
       <c r="Y46" t="n">
-        <v>431.5648235283147</v>
+        <v>490.5013510001849</v>
       </c>
     </row>
   </sheetData>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.11334984944293</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>81.66010830944114</v>
+        <v>5.712245507081541</v>
       </c>
       <c r="L13" t="n">
-        <v>60.88682503443104</v>
+        <v>71.02338042504299</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>69.42275263851192</v>
       </c>
       <c r="N13" t="n">
-        <v>66.36346275780024</v>
+        <v>66.36346275780025</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>83.28144447453259</v>
+        <v>37.1254060352553</v>
       </c>
       <c r="Q13" t="n">
         <v>27.81784642339688</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21809620174883</v>
+        <v>31.21809620174884</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>6.22858451822664</v>
+        <v>6.228584518226654</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.33532272952759</v>
+        <v>29.3353227295276</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.11334984944293</v>
+        <v>23.11334984944294</v>
       </c>
       <c r="K16" t="n">
-        <v>5.712245507081541</v>
+        <v>5.712245507081548</v>
       </c>
       <c r="L16" t="n">
-        <v>71.02338042504302</v>
+        <v>71.02338042504296</v>
       </c>
       <c r="M16" t="n">
-        <v>69.42275263851195</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>62.75201753103603</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>75.40501809286235</v>
       </c>
       <c r="P16" t="n">
-        <v>83.28144447453263</v>
+        <v>64.10333374885853</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.81784642339688</v>
+        <v>103.7657092257565</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.70128436951479</v>
+        <v>2.221784561040728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>9.190019531849543</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>79.32734311265605</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>167.1073890981782</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7.352495282391899</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>199.3688773843007</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>111.5200902026061</v>
+        <v>336.956686010083</v>
       </c>
       <c r="N19" t="n">
-        <v>175.8584291375</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>187.5041632199789</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>151.4964757046909</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.150849970123502</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.70128436951478</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>75.86421867849822</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>88.68555478243317</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>149.563715225181</v>
       </c>
       <c r="R21" t="n">
-        <v>12.82588865527179</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>47.02458551182345</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>181.4890873650638</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>153.0649784343843</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>187.5041632199789</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>199.9282760679552</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.150849970123481</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>256.8188184528909</v>
+        <v>258.9430967094553</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>248.2539792410428</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9795,22 +9795,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>46.95698514945327</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>78.12986811408976</v>
       </c>
       <c r="P25" t="n">
         <v>263.5328115890082</v>
@@ -10044,13 +10044,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
-        <v>78.12986811408966</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>6.274496422708467</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>127.5494547533709</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
         <v>246.129700984478</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>170.0847972377571</v>
+        <v>239.1776382754172</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,16 +10278,16 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>335.3881832803894</v>
+        <v>108.3233934631244</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>6.274496422708083</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
         <v>127.5494547533709</v>
@@ -10427,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>150.3193388037195</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>396.4490397881976</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
@@ -10518,16 +10518,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>78.12986811408965</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>89.58839339659417</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.76545843403778</v>
+        <v>12.33241430959869</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>150.3193388037196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10746,7 +10746,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10755,16 +10755,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>23.40534695689537</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>23.93045033463834</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>360.9067319962714</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>35.54230779192613</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>150.3193388037198</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10983,13 +10983,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>155.7437706538057</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>89.58839339659396</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>170.0847972377573</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
         <v>208.3638319047618</v>
@@ -11226,19 +11226,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803894</v>
+        <v>108.3233934631244</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>199.4818942380349</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>258.9430967094552</v>
+        <v>150.3193388037198</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11463,16 +11463,16 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>108.3233934631249</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>318.2573327462026</v>
+        <v>6.274496422708694</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>330.1711050654849</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23269,13 +23269,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>340.8722451234897</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>327.8001522282804</v>
+        <v>327.8001522282803</v>
       </c>
       <c r="H11" t="n">
-        <v>222.7062543123339</v>
+        <v>298.6541171146935</v>
       </c>
       <c r="I11" t="n">
         <v>51.06139321367293</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>113.5793406133823</v>
+        <v>37.63147781102268</v>
       </c>
       <c r="T11" t="n">
         <v>216.0753719669003</v>
@@ -23320,10 +23320,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>313.0278202998648</v>
       </c>
       <c r="X11" t="n">
-        <v>329.7420862964187</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.95213950687116</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>56.70725773618415</v>
+        <v>56.70725773618413</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>39.78032340044187</v>
       </c>
       <c r="E12" t="n">
-        <v>52.39301029127699</v>
+        <v>43.34002504523568</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>40.97540346300212</v>
       </c>
       <c r="G12" t="n">
         <v>105.4424218008434</v>
@@ -23405,7 +23405,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.86007723744868</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>109.8748465277443</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>81.95183542795947</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>96.08993707419634</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>89.22946147827585</v>
+        <v>165.1773242806354</v>
       </c>
       <c r="H13" t="n">
-        <v>68.6021496616122</v>
+        <v>144.5500124639718</v>
       </c>
       <c r="I13" t="n">
-        <v>27.1887042960189</v>
+        <v>103.1365670983785</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>177.547131831091</v>
       </c>
       <c r="T13" t="n">
-        <v>235.4417556781015</v>
+        <v>168.5468781217832</v>
       </c>
       <c r="U13" t="n">
         <v>279.9483170948056</v>
@@ -23478,7 +23478,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>200.3311050438547</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -23503,7 +23503,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>343.301935771954</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -23515,7 +23515,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I14" t="n">
-        <v>51.06139321367293</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.63147781102265</v>
+        <v>37.63147781102273</v>
       </c>
       <c r="T14" t="n">
-        <v>149.180494410582</v>
+        <v>140.1275091645408</v>
       </c>
       <c r="U14" t="n">
         <v>254.4184479242485</v>
       </c>
       <c r="V14" t="n">
-        <v>270.3913163145245</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>303.9748350538235</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>62.95213950687119</v>
       </c>
       <c r="C15" t="n">
-        <v>56.7072577361841</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>39.78032340044184</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -23594,7 +23594,7 @@
         <v>65.42529764590962</v>
       </c>
       <c r="I15" t="n">
-        <v>4.090887922119276</v>
+        <v>4.090887922119279</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>98.03537458961453</v>
       </c>
       <c r="T15" t="n">
-        <v>155.8226171592196</v>
+        <v>79.87475435686005</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3458692164555</v>
+        <v>119.3980064140959</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>144.6795341805782</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>107.6678444861778</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.86007723744864</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -23655,10 +23655,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>93.43457591154109</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>81.95183542795951</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.4092273259303</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>101.5992690287314</v>
+        <v>101.5992690287315</v>
       </c>
       <c r="T16" t="n">
-        <v>159.4938928757418</v>
+        <v>235.4417556781015</v>
       </c>
       <c r="U16" t="n">
-        <v>204.000454292446</v>
+        <v>279.9483170948056</v>
       </c>
       <c r="V16" t="n">
-        <v>204.252010053555</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>235.4747732885255</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>244.6353224884626</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>186.4667873057664</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>180.8627331337739</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>190.6402558541761</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>30.5780996076266</v>
       </c>
       <c r="G17" t="n">
-        <v>403.2510401841353</v>
+        <v>402.5736010241579</v>
       </c>
       <c r="H17" t="n">
-        <v>293.5644734679276</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.784797228775417</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.2545262986572</v>
+        <v>86.81738144067359</v>
       </c>
       <c r="T17" t="n">
-        <v>213.8998645763261</v>
+        <v>210.9343746535253</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3786899365281</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>35.64594269330695</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.1765168157536</v>
+        <v>75.50753911458935</v>
       </c>
       <c r="H18" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>93.09630611656613</v>
+        <v>86.36373520078426</v>
       </c>
       <c r="T18" t="n">
-        <v>154.7508334693185</v>
+        <v>153.2898576318678</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.9543984734636</v>
+        <v>42.68598190768699</v>
       </c>
       <c r="H19" t="n">
-        <v>142.5679993783892</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>95.08142724015538</v>
+        <v>87.29420346815202</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6621429915595</v>
+        <v>168.3664150598866</v>
       </c>
       <c r="T19" t="n">
-        <v>234.4892545020035</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9361575053235</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>51.59033013577712</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>56.72241037211822</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>186.5624103937485</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>107.157274323942</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>403.2510401841353</v>
+        <v>402.5736010241579</v>
       </c>
       <c r="H20" t="n">
-        <v>293.5644734679276</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.2545262986572</v>
+        <v>86.81738144067359</v>
       </c>
       <c r="T20" t="n">
-        <v>213.8998645763261</v>
+        <v>210.9343746535253</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3786899365281</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>160.366140382087</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>235.1533184733549</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>177.3707488472947</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>93.09630611656613</v>
+        <v>86.36373520078426</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>88.73310111487883</v>
+        <v>195.3045292894585</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>33.49286745699868</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9543984734636</v>
+        <v>112.1510608658039</v>
       </c>
       <c r="H22" t="n">
-        <v>142.5679993783892</v>
+        <v>139.8662665055796</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.29420346815202</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>56.38567239618433</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>234.4892545020035</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>60.37960003122743</v>
+        <v>279.9195824570241</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>56.72241037211825</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>16.40386604481733</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.5355058991854</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24214,16 +24214,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>346.4822648854262</v>
       </c>
       <c r="G23" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>151.3054241526898</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>11.79263827374629</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>138.8332284553781</v>
+        <v>110.2834176758302</v>
       </c>
       <c r="I25" t="n">
         <v>83.80004204681616</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>221.9294421088121</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24454,10 +24454,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>283.9738944557603</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>281.9425423237492</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>104.6376524333634</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>23.52270179129934</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>402.3145745171349</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>229.1301966580193</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>153.0042988813134</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>113.5298827261237</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681616</v>
+        <v>71.30394617483822</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>313.2550546100499</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>55.28108213259196</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>10.31010706266875</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S34" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>94.40043326033549</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>159.7974689116649</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>210.5521541844397</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>25.53335458106352</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>153.5446050273821</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>270.4627453630103</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>62.39069397807037</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.9841985954561</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>164.9735130002899</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>94.32740768731082</v>
       </c>
       <c r="H41" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>176.7163616121978</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>83.80004204681616</v>
@@ -25836,10 +25836,10 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T43" t="n">
-        <v>123.6378189032562</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U43" t="n">
         <v>279.9132448002744</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>180.6364929011404</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.3145745171349</v>
+        <v>143.1328428728986</v>
       </c>
       <c r="H44" t="n">
         <v>283.9738944557603</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188677</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>259.2813074512576</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26028,22 +26028,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>34.67145492762248</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.4923373985419</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>322569.3968212068</v>
+        <v>494435.0357627857</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>322569.3968212067</v>
+        <v>494435.0357627857</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>560593.6201938587</v>
+        <v>560593.6201938586</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>560593.6201938587</v>
+        <v>560593.6201938586</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>560593.620193859</v>
+        <v>560593.6201938587</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40505.53209712526</v>
+        <v>40505.53209712528</v>
       </c>
       <c r="C2" t="n">
-        <v>40505.53209712527</v>
+        <v>40505.53209712528</v>
       </c>
       <c r="D2" t="n">
-        <v>40638.47021822906</v>
+        <v>40638.47021822903</v>
       </c>
       <c r="E2" t="n">
-        <v>59164.26815904782</v>
+        <v>59164.2681590478</v>
       </c>
       <c r="F2" t="n">
-        <v>59164.26815904782</v>
+        <v>59164.2681590478</v>
       </c>
       <c r="G2" t="n">
-        <v>93378.59044281211</v>
+        <v>142358.1448336715</v>
       </c>
       <c r="H2" t="n">
-        <v>93378.5904428121</v>
+        <v>142358.1448336716</v>
       </c>
       <c r="I2" t="n">
-        <v>161192.734647619</v>
+        <v>161192.7346476189</v>
       </c>
       <c r="J2" t="n">
         <v>161192.7346476189</v>
@@ -26343,19 +26343,19 @@
         <v>161192.7346476189</v>
       </c>
       <c r="L2" t="n">
-        <v>161192.734647619</v>
+        <v>161192.7346476189</v>
       </c>
       <c r="M2" t="n">
-        <v>161192.734647619</v>
+        <v>161192.7346476189</v>
       </c>
       <c r="N2" t="n">
-        <v>161192.734647619</v>
+        <v>161192.7346476189</v>
       </c>
       <c r="O2" t="n">
         <v>161192.7346476189</v>
       </c>
       <c r="P2" t="n">
-        <v>161192.7346476189</v>
+        <v>161192.734647619</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135475.8703470907</v>
+        <v>323092.1238483698</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>251542.4672683751</v>
+        <v>69780.78515113999</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18926.51120179922</v>
+        <v>18926.51120179923</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34559.57598144807</v>
+        <v>84254.92161297132</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8682.383497347948</v>
+        <v>8682.383497347946</v>
       </c>
       <c r="C4" t="n">
         <v>8682.383497347948</v>
@@ -26426,25 +26426,25 @@
         <v>7312.06638439312</v>
       </c>
       <c r="E4" t="n">
-        <v>3985.621838384864</v>
+        <v>3985.621838384865</v>
       </c>
       <c r="F4" t="n">
         <v>3985.621838384865</v>
       </c>
       <c r="G4" t="n">
-        <v>7607.042878191141</v>
+        <v>14345.75583244077</v>
       </c>
       <c r="H4" t="n">
-        <v>7607.04287819113</v>
+        <v>14345.75583244077</v>
       </c>
       <c r="I4" t="n">
+        <v>17006.98919740598</v>
+      </c>
+      <c r="J4" t="n">
         <v>17006.98919740599</v>
       </c>
-      <c r="J4" t="n">
-        <v>17006.98919740598</v>
-      </c>
       <c r="K4" t="n">
-        <v>17006.98919740598</v>
+        <v>17006.98919740597</v>
       </c>
       <c r="L4" t="n">
         <v>17006.98919740598</v>
@@ -26453,13 +26453,13 @@
         <v>17006.98919740598</v>
       </c>
       <c r="N4" t="n">
-        <v>17006.98919740598</v>
+        <v>17006.98919740599</v>
       </c>
       <c r="O4" t="n">
-        <v>17006.98919740598</v>
+        <v>17006.98919740597</v>
       </c>
       <c r="P4" t="n">
-        <v>17006.98919740598</v>
+        <v>17006.98919740599</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>9460.071166703499</v>
       </c>
       <c r="F5" t="n">
-        <v>9460.071166703501</v>
+        <v>9460.071166703496</v>
       </c>
       <c r="G5" t="n">
-        <v>20886.45015162825</v>
+        <v>37115.46430991983</v>
       </c>
       <c r="H5" t="n">
-        <v>20886.45015162826</v>
+        <v>37115.46430991983</v>
       </c>
       <c r="I5" t="n">
         <v>43385.32273194157</v>
@@ -26496,7 +26496,7 @@
         <v>43385.32273194157</v>
       </c>
       <c r="K5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="L5" t="n">
         <v>43385.32273194157</v>
@@ -26508,10 +26508,10 @@
         <v>43385.32273194157</v>
       </c>
       <c r="O5" t="n">
+        <v>43385.32273194156</v>
+      </c>
+      <c r="P5" t="n">
         <v>43385.32273194157</v>
-      </c>
-      <c r="P5" t="n">
-        <v>43385.32273194158</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120204.0880574117</v>
+        <v>-121579.7524121292</v>
       </c>
       <c r="C6" t="n">
-        <v>-4423.771501669202</v>
+        <v>-5799.435856386724</v>
       </c>
       <c r="D6" t="n">
-        <v>-11154.0318192655</v>
+        <v>-12528.86531072618</v>
       </c>
       <c r="E6" t="n">
-        <v>-51355.09898722176</v>
+        <v>-52614.14624155231</v>
       </c>
       <c r="F6" t="n">
-        <v>45718.57515395945</v>
+        <v>44459.52789962891</v>
       </c>
       <c r="G6" t="n">
-        <v>-70590.77293409799</v>
+        <v>-232934.284682173</v>
       </c>
       <c r="H6" t="n">
-        <v>64885.09741299271</v>
+        <v>90157.83916619685</v>
       </c>
       <c r="I6" t="n">
-        <v>-150742.0445501037</v>
+        <v>30398.26822835444</v>
       </c>
       <c r="J6" t="n">
-        <v>100800.4227182714</v>
+        <v>100179.0533794944</v>
       </c>
       <c r="K6" t="n">
-        <v>100800.4227182714</v>
+        <v>100179.0533794945</v>
       </c>
       <c r="L6" t="n">
-        <v>100800.4227182714</v>
+        <v>100179.0533794944</v>
       </c>
       <c r="M6" t="n">
-        <v>81873.9115164722</v>
+        <v>81252.5421776952</v>
       </c>
       <c r="N6" t="n">
-        <v>100800.4227182715</v>
+        <v>100179.0533794944</v>
       </c>
       <c r="O6" t="n">
-        <v>66240.84673682331</v>
+        <v>15924.1317665231</v>
       </c>
       <c r="P6" t="n">
-        <v>100800.4227182711</v>
+        <v>100179.0533794945</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>222.1303260697264</v>
       </c>
       <c r="G3" t="n">
-        <v>345.752819137762</v>
+        <v>514.2658101821252</v>
       </c>
       <c r="H3" t="n">
-        <v>345.7528191377622</v>
+        <v>514.2658101821252</v>
       </c>
       <c r="I3" t="n">
         <v>578.6986538040984</v>
@@ -26779,7 +26779,7 @@
         <v>578.6986538040984</v>
       </c>
       <c r="P3" t="n">
-        <v>578.6986538040986</v>
+        <v>578.6986538040984</v>
       </c>
     </row>
     <row r="4">
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="F4" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="G4" t="n">
-        <v>219.5565574740961</v>
+        <v>426.0603560518011</v>
       </c>
       <c r="H4" t="n">
-        <v>219.5565574740961</v>
+        <v>426.060356051801</v>
       </c>
       <c r="I4" t="n">
-        <v>506.080461825859</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="J4" t="n">
         <v>506.0804618258589</v>
       </c>
       <c r="K4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="L4" t="n">
         <v>506.0804618258589</v>
@@ -26825,13 +26825,13 @@
         <v>506.0804618258589</v>
       </c>
       <c r="N4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.080461825859</v>
       </c>
       <c r="O4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="P4" t="n">
-        <v>506.0804618258591</v>
+        <v>506.080461825859</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>123.6224930680356</v>
+        <v>292.1354841123988</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>232.9458346663362</v>
+        <v>64.43284362197323</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>143.6086946717365</v>
+        <v>350.1124932494415</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>286.5239043517629</v>
+        <v>80.02010577405792</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>143.6086946717365</v>
+        <v>350.1124932494413</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>143.6086946717365</v>
+        <v>350.1124932494415</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8929862354561859</v>
+        <v>0.8929862354561856</v>
       </c>
       <c r="H14" t="n">
-        <v>9.145295283865666</v>
+        <v>9.145295283865664</v>
       </c>
       <c r="I14" t="n">
-        <v>34.42685184242464</v>
+        <v>34.42685184242463</v>
       </c>
       <c r="J14" t="n">
-        <v>75.79109050154953</v>
+        <v>75.7910905015495</v>
       </c>
       <c r="K14" t="n">
         <v>113.5911978484099</v>
       </c>
       <c r="L14" t="n">
-        <v>140.9199253517522</v>
+        <v>140.9199253517521</v>
       </c>
       <c r="M14" t="n">
         <v>156.8005693165461</v>
@@ -32013,25 +32013,25 @@
         <v>159.337766458036</v>
       </c>
       <c r="O14" t="n">
-        <v>150.4581345792186</v>
+        <v>150.4581345792185</v>
       </c>
       <c r="P14" t="n">
-        <v>128.412536891394</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.43246733411927</v>
+        <v>96.43246733411924</v>
       </c>
       <c r="R14" t="n">
-        <v>56.09404661297469</v>
+        <v>56.09404661297467</v>
       </c>
       <c r="S14" t="n">
-        <v>20.34892384045786</v>
+        <v>20.34892384045785</v>
       </c>
       <c r="T14" t="n">
-        <v>3.909047245709456</v>
+        <v>3.909047245709455</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07143889883649486</v>
+        <v>0.07143889883649483</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4777897579612984</v>
+        <v>0.4777897579612982</v>
       </c>
       <c r="H15" t="n">
-        <v>4.614443188731487</v>
+        <v>4.614443188731486</v>
       </c>
       <c r="I15" t="n">
         <v>16.45021754384295</v>
       </c>
       <c r="J15" t="n">
-        <v>45.14065428177337</v>
+        <v>45.14065428177336</v>
       </c>
       <c r="K15" t="n">
-        <v>77.15256806518036</v>
+        <v>77.15256806518033</v>
       </c>
       <c r="L15" t="n">
         <v>103.7411489819038</v>
@@ -32095,22 +32095,22 @@
         <v>113.6783377198533</v>
       </c>
       <c r="P15" t="n">
-        <v>91.23688807946934</v>
+        <v>91.23688807946931</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.98944348993697</v>
+        <v>60.98944348993695</v>
       </c>
       <c r="R15" t="n">
         <v>29.66487637587781</v>
       </c>
       <c r="S15" t="n">
-        <v>8.874735197219724</v>
+        <v>8.874735197219721</v>
       </c>
       <c r="T15" t="n">
         <v>1.92582801564225</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03143353670798017</v>
+        <v>0.03143353670798016</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,40 +32150,40 @@
         <v>0.4005628830765557</v>
       </c>
       <c r="H16" t="n">
-        <v>3.561368178626108</v>
+        <v>3.561368178626107</v>
       </c>
       <c r="I16" t="n">
         <v>12.04601833833861</v>
       </c>
       <c r="J16" t="n">
-        <v>28.31979583351249</v>
+        <v>28.31979583351248</v>
       </c>
       <c r="K16" t="n">
-        <v>46.53812405198529</v>
+        <v>46.53812405198528</v>
       </c>
       <c r="L16" t="n">
-        <v>59.55277627121813</v>
+        <v>59.55277627121811</v>
       </c>
       <c r="M16" t="n">
-        <v>62.79005266262773</v>
+        <v>62.79005266262772</v>
       </c>
       <c r="N16" t="n">
-        <v>61.2970455529788</v>
+        <v>61.29704555297879</v>
       </c>
       <c r="O16" t="n">
-        <v>56.61774278249356</v>
+        <v>56.61774278249354</v>
       </c>
       <c r="P16" t="n">
-        <v>48.44625996773178</v>
+        <v>48.44625996773177</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.54167923652869</v>
+        <v>33.54167923652868</v>
       </c>
       <c r="R16" t="n">
-        <v>18.01076381542404</v>
+        <v>18.01076381542403</v>
       </c>
       <c r="S16" t="n">
-        <v>6.980718607797792</v>
+        <v>6.98071860779779</v>
       </c>
       <c r="T16" t="n">
         <v>1.711495954963465</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.389961081960851</v>
+        <v>2.06740024193819</v>
       </c>
       <c r="H17" t="n">
-        <v>14.23493893063157</v>
+        <v>21.17276272774949</v>
       </c>
       <c r="I17" t="n">
-        <v>53.58647461229577</v>
+        <v>79.70344782732215</v>
       </c>
       <c r="J17" t="n">
-        <v>117.9712093800749</v>
+        <v>175.4680112842016</v>
       </c>
       <c r="K17" t="n">
-        <v>176.8082619794778</v>
+        <v>262.9810635254453</v>
       </c>
       <c r="L17" t="n">
-        <v>219.3462834415372</v>
+        <v>326.2512636796612</v>
       </c>
       <c r="M17" t="n">
-        <v>244.0650038328585</v>
+        <v>363.0173927322295</v>
       </c>
       <c r="N17" t="n">
-        <v>248.0142307569798</v>
+        <v>368.8913936696364</v>
       </c>
       <c r="O17" t="n">
-        <v>234.1928052482316</v>
+        <v>348.3336825138635</v>
       </c>
       <c r="P17" t="n">
-        <v>199.878141037323</v>
+        <v>297.2947390410144</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.1001597896</v>
+        <v>223.2559678766029</v>
       </c>
       <c r="R17" t="n">
-        <v>87.3121428147234</v>
+        <v>129.8663304476499</v>
       </c>
       <c r="S17" t="n">
-        <v>31.67373815518293</v>
+        <v>47.11088301316655</v>
       </c>
       <c r="T17" t="n">
-        <v>6.084554636283629</v>
+        <v>9.050044559084432</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1111968865568681</v>
+        <v>0.1653920193550552</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7436947430510353</v>
+        <v>1.106156648316269</v>
       </c>
       <c r="H18" t="n">
-        <v>7.182525544729737</v>
+        <v>10.6831444718966</v>
       </c>
       <c r="I18" t="n">
-        <v>25.60527953048521</v>
+        <v>38.08477933895927</v>
       </c>
       <c r="J18" t="n">
-        <v>70.2628441230805</v>
+        <v>104.5075454446525</v>
       </c>
       <c r="K18" t="n">
-        <v>120.0903919074998</v>
+        <v>178.6200408818425</v>
       </c>
       <c r="L18" t="n">
-        <v>161.4763519944803</v>
+        <v>240.1766880477935</v>
       </c>
       <c r="M18" t="n">
-        <v>188.4352864300803</v>
+        <v>280.2748665492582</v>
       </c>
       <c r="N18" t="n">
-        <v>193.4226077551901</v>
+        <v>287.692908282923</v>
       </c>
       <c r="O18" t="n">
-        <v>176.9438979223224</v>
+        <v>263.182805707073</v>
       </c>
       <c r="P18" t="n">
-        <v>142.013077732263</v>
+        <v>211.2274041859374</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.93198158665497</v>
+        <v>141.1999258447224</v>
       </c>
       <c r="R18" t="n">
-        <v>46.1743104501336</v>
+        <v>68.67874348054875</v>
       </c>
       <c r="S18" t="n">
-        <v>13.81380367026812</v>
+        <v>20.54637458604999</v>
       </c>
       <c r="T18" t="n">
-        <v>2.997611705543426</v>
+        <v>4.458587542994084</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04892728572704182</v>
+        <v>0.07277346370501775</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6234886902484232</v>
+        <v>0.9273645757382584</v>
       </c>
       <c r="H19" t="n">
-        <v>5.543381264208712</v>
+        <v>8.245114137018339</v>
       </c>
       <c r="I19" t="n">
-        <v>18.75000533947077</v>
+        <v>27.88838196856509</v>
       </c>
       <c r="J19" t="n">
-        <v>44.08065040056352</v>
+        <v>65.56467550469486</v>
       </c>
       <c r="K19" t="n">
-        <v>72.43804964886225</v>
+        <v>107.7429025266813</v>
       </c>
       <c r="L19" t="n">
-        <v>92.69576400293377</v>
+        <v>137.8738206511225</v>
       </c>
       <c r="M19" t="n">
-        <v>97.73468623594145</v>
+        <v>145.3686125404981</v>
       </c>
       <c r="N19" t="n">
-        <v>95.4107738450156</v>
+        <v>141.9120718491101</v>
       </c>
       <c r="O19" t="n">
-        <v>88.12729232711352</v>
+        <v>131.0787674870768</v>
       </c>
       <c r="P19" t="n">
-        <v>75.40812304604563</v>
+        <v>112.1605301420162</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.20867568980206</v>
+        <v>77.6541373375009</v>
       </c>
       <c r="R19" t="n">
-        <v>28.03431874517</v>
+        <v>41.69768356001295</v>
       </c>
       <c r="S19" t="n">
-        <v>10.86570744732933</v>
+        <v>16.16143537900219</v>
       </c>
       <c r="T19" t="n">
-        <v>2.663997131061444</v>
+        <v>3.962375914518012</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03400847401355039</v>
+        <v>0.05058352231299597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.389961081960852</v>
+        <v>2.06740024193819</v>
       </c>
       <c r="H20" t="n">
-        <v>14.23493893063158</v>
+        <v>21.17276272774949</v>
       </c>
       <c r="I20" t="n">
-        <v>53.5864746122958</v>
+        <v>79.70344782732215</v>
       </c>
       <c r="J20" t="n">
-        <v>117.971209380075</v>
+        <v>175.4680112842016</v>
       </c>
       <c r="K20" t="n">
-        <v>176.8082619794779</v>
+        <v>262.9810635254453</v>
       </c>
       <c r="L20" t="n">
-        <v>219.3462834415373</v>
+        <v>326.2512636796612</v>
       </c>
       <c r="M20" t="n">
-        <v>244.0650038328586</v>
+        <v>363.0173927322295</v>
       </c>
       <c r="N20" t="n">
-        <v>248.0142307569799</v>
+        <v>368.8913936696364</v>
       </c>
       <c r="O20" t="n">
-        <v>234.1928052482317</v>
+        <v>348.3336825138635</v>
       </c>
       <c r="P20" t="n">
-        <v>199.8781410373231</v>
+        <v>297.2947390410144</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.1001597896</v>
+        <v>223.2559678766029</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472344</v>
+        <v>129.8663304476499</v>
       </c>
       <c r="S20" t="n">
-        <v>31.67373815518295</v>
+        <v>47.11088301316655</v>
       </c>
       <c r="T20" t="n">
-        <v>6.084554636283633</v>
+        <v>9.050044559084432</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1111968865568681</v>
+        <v>0.1653920193550552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7436947430510357</v>
+        <v>1.106156648316269</v>
       </c>
       <c r="H21" t="n">
-        <v>7.18252554472974</v>
+        <v>10.6831444718966</v>
       </c>
       <c r="I21" t="n">
-        <v>25.60527953048522</v>
+        <v>38.08477933895927</v>
       </c>
       <c r="J21" t="n">
-        <v>70.26284412308053</v>
+        <v>104.5075454446525</v>
       </c>
       <c r="K21" t="n">
-        <v>120.0903919074999</v>
+        <v>178.6200408818425</v>
       </c>
       <c r="L21" t="n">
-        <v>161.4763519944804</v>
+        <v>240.1766880477935</v>
       </c>
       <c r="M21" t="n">
-        <v>188.4352864300804</v>
+        <v>280.2748665492582</v>
       </c>
       <c r="N21" t="n">
-        <v>193.4226077551902</v>
+        <v>287.692908282923</v>
       </c>
       <c r="O21" t="n">
-        <v>176.9438979223225</v>
+        <v>263.182805707073</v>
       </c>
       <c r="P21" t="n">
-        <v>142.0130777322631</v>
+        <v>211.2274041859374</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.93198158665501</v>
+        <v>141.1999258447224</v>
       </c>
       <c r="R21" t="n">
-        <v>46.17431045013362</v>
+        <v>68.67874348054875</v>
       </c>
       <c r="S21" t="n">
-        <v>13.81380367026813</v>
+        <v>20.54637458604999</v>
       </c>
       <c r="T21" t="n">
-        <v>2.997611705543428</v>
+        <v>4.458587542994084</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04892728572704184</v>
+        <v>0.07277346370501775</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6234886902484236</v>
+        <v>0.9273645757382584</v>
       </c>
       <c r="H22" t="n">
-        <v>5.543381264208715</v>
+        <v>8.245114137018339</v>
       </c>
       <c r="I22" t="n">
-        <v>18.75000533947078</v>
+        <v>27.88838196856509</v>
       </c>
       <c r="J22" t="n">
-        <v>44.08065040056354</v>
+        <v>65.56467550469486</v>
       </c>
       <c r="K22" t="n">
-        <v>72.43804964886228</v>
+        <v>107.7429025266813</v>
       </c>
       <c r="L22" t="n">
-        <v>92.69576400293381</v>
+        <v>137.8738206511225</v>
       </c>
       <c r="M22" t="n">
-        <v>97.73468623594151</v>
+        <v>145.3686125404981</v>
       </c>
       <c r="N22" t="n">
-        <v>95.41077384501564</v>
+        <v>141.9120718491101</v>
       </c>
       <c r="O22" t="n">
-        <v>88.12729232711357</v>
+        <v>131.0787674870768</v>
       </c>
       <c r="P22" t="n">
-        <v>75.40812304604566</v>
+        <v>112.1605301420162</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.20867568980209</v>
+        <v>77.6541373375009</v>
       </c>
       <c r="R22" t="n">
-        <v>28.03431874517002</v>
+        <v>41.69768356001295</v>
       </c>
       <c r="S22" t="n">
-        <v>10.86570744732934</v>
+        <v>16.16143537900219</v>
       </c>
       <c r="T22" t="n">
-        <v>2.663997131061445</v>
+        <v>3.962375914518012</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03400847401355041</v>
+        <v>0.05058352231299597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H44" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J44" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N44" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O44" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P44" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R44" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S44" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T44" t="n">
         <v>10.18393309357765</v>
@@ -34441,10 +34441,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H45" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I45" t="n">
-        <v>42.85645690907712</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J45" t="n">
         <v>117.601393411265</v>
@@ -34453,34 +34453,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L45" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M45" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N45" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O45" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P45" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R45" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S45" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T45" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H46" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I46" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J46" t="n">
-        <v>73.77933492843401</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K46" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L46" t="n">
         <v>155.1481603985611</v>
       </c>
       <c r="M46" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N46" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O46" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P46" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R46" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S46" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T46" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>42.54459321251302</v>
       </c>
       <c r="K13" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>65.81130741174766</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="M13" t="n">
-        <v>6.525110163847685</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="N13" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235961</v>
       </c>
       <c r="O13" t="n">
         <v>0.5428447094972313</v>
       </c>
       <c r="P13" t="n">
-        <v>75.94786280235959</v>
+        <v>29.79182436308231</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.467499168241588</v>
+        <v>2.467499168241559</v>
       </c>
       <c r="K14" t="n">
-        <v>24.45480817519277</v>
+        <v>24.45480817519274</v>
       </c>
       <c r="L14" t="n">
-        <v>45.43452728890735</v>
+        <v>45.43452728890732</v>
       </c>
       <c r="M14" t="n">
-        <v>63.51034485950065</v>
+        <v>63.51034485950062</v>
       </c>
       <c r="N14" t="n">
-        <v>66.42547570141669</v>
+        <v>66.42547570141666</v>
       </c>
       <c r="O14" t="n">
-        <v>57.26835895343542</v>
+        <v>57.2683589534354</v>
       </c>
       <c r="P14" t="n">
-        <v>34.7631736105098</v>
+        <v>34.76317361050977</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.39866293496722</v>
+        <v>6.398662934967192</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.32678528056497</v>
+        <v>21.32678528056494</v>
       </c>
       <c r="L15" t="n">
-        <v>47.62662517105478</v>
+        <v>47.62662517105477</v>
       </c>
       <c r="M15" t="n">
-        <v>63.49674396958346</v>
+        <v>63.49674396958343</v>
       </c>
       <c r="N15" t="n">
-        <v>71.07175948935102</v>
+        <v>71.071759489351</v>
       </c>
       <c r="O15" t="n">
-        <v>55.92685871985329</v>
+        <v>55.92685871985326</v>
       </c>
       <c r="P15" t="n">
-        <v>36.97725307666559</v>
+        <v>36.97725307666556</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.296824985098247</v>
+        <v>4.296824985098226</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="M16" t="n">
-        <v>75.94786280235964</v>
+        <v>6.525110163847671</v>
       </c>
       <c r="N16" t="n">
-        <v>72.33641757559539</v>
+        <v>9.584400044559345</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5428447094972313</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="P16" t="n">
-        <v>75.94786280235964</v>
+        <v>56.76975207668552</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.64761804676696</v>
+        <v>102.1444199508937</v>
       </c>
       <c r="K17" t="n">
-        <v>87.67187230626065</v>
+        <v>173.8446738522281</v>
       </c>
       <c r="L17" t="n">
-        <v>123.8608853786924</v>
+        <v>230.7658656168164</v>
       </c>
       <c r="M17" t="n">
-        <v>150.774779375813</v>
+        <v>269.7271682751841</v>
       </c>
       <c r="N17" t="n">
-        <v>155.1019400003605</v>
+        <v>275.9791029130171</v>
       </c>
       <c r="O17" t="n">
-        <v>141.0030296224484</v>
+        <v>255.1439068880804</v>
       </c>
       <c r="P17" t="n">
-        <v>106.2287777564389</v>
+        <v>203.6453757601302</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.06635539044794</v>
+        <v>133.2221634774508</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>42.55418763292643</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.89360532308049</v>
+        <v>299.2680076291305</v>
       </c>
       <c r="K18" t="n">
-        <v>73.45462865473399</v>
+        <v>122.7942580972271</v>
       </c>
       <c r="L18" t="n">
-        <v>105.3618281836312</v>
+        <v>184.0621642369444</v>
       </c>
       <c r="M18" t="n">
-        <v>130.8710026916628</v>
+        <v>222.7105828108408</v>
       </c>
       <c r="N18" t="n">
-        <v>219.5565574740961</v>
+        <v>234.499514889173</v>
       </c>
       <c r="O18" t="n">
-        <v>119.1924189223224</v>
+        <v>205.4313267070731</v>
       </c>
       <c r="P18" t="n">
-        <v>87.75344272945929</v>
+        <v>156.9677691831337</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.23936308181625</v>
+        <v>251.6146964380619</v>
       </c>
       <c r="R18" t="n">
-        <v>76.03241081642642</v>
+        <v>9.678544375143339</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>79.7894728836954</v>
       </c>
       <c r="K19" t="n">
-        <v>219.5565574740961</v>
+        <v>263.8563648723762</v>
       </c>
       <c r="L19" t="n">
-        <v>38.06747010903226</v>
+        <v>400.3961441663353</v>
       </c>
       <c r="M19" t="n">
-        <v>152.9898339397675</v>
+        <v>426.0603560518011</v>
       </c>
       <c r="N19" t="n">
-        <v>219.5565574740961</v>
+        <v>90.19942634069069</v>
       </c>
       <c r="O19" t="n">
-        <v>219.5565574740961</v>
+        <v>75.00386941408047</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62828140614085</v>
+        <v>207.8771642068023</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>143.8440664309462</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.64761804676702</v>
+        <v>102.1444199508937</v>
       </c>
       <c r="K20" t="n">
-        <v>87.67187230626074</v>
+        <v>173.8446738522281</v>
       </c>
       <c r="L20" t="n">
-        <v>123.8608853786925</v>
+        <v>230.7658656168164</v>
       </c>
       <c r="M20" t="n">
-        <v>150.7747793758132</v>
+        <v>269.7271682751841</v>
       </c>
       <c r="N20" t="n">
-        <v>155.1019400003606</v>
+        <v>275.9791029130171</v>
       </c>
       <c r="O20" t="n">
-        <v>141.0030296224485</v>
+        <v>255.1439068880804</v>
       </c>
       <c r="P20" t="n">
-        <v>106.2287777564389</v>
+        <v>203.6453757601302</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.066355390448</v>
+        <v>133.2221634774508</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>42.55418763292643</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>17.54367387299705</v>
       </c>
       <c r="J21" t="n">
-        <v>94.75782400157874</v>
+        <v>299.2680076291305</v>
       </c>
       <c r="K21" t="n">
-        <v>64.26460912288454</v>
+        <v>122.7942580972271</v>
       </c>
       <c r="L21" t="n">
-        <v>105.3618281836313</v>
+        <v>184.0621642369444</v>
       </c>
       <c r="M21" t="n">
-        <v>219.5565574740961</v>
+        <v>222.7105828108408</v>
       </c>
       <c r="N21" t="n">
-        <v>140.2292143614402</v>
+        <v>234.499514889173</v>
       </c>
       <c r="O21" t="n">
-        <v>119.1924189223225</v>
+        <v>205.4313267070731</v>
       </c>
       <c r="P21" t="n">
-        <v>87.75344272945938</v>
+        <v>156.9677691831337</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.23936308181629</v>
+        <v>234.0710225650647</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.678544375143339</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.30544777956407</v>
+        <v>79.7894728836954</v>
       </c>
       <c r="K22" t="n">
-        <v>67.2122656016189</v>
+        <v>263.8563648723762</v>
       </c>
       <c r="L22" t="n">
-        <v>219.5565574740961</v>
+        <v>400.3961441663353</v>
       </c>
       <c r="M22" t="n">
-        <v>41.46974373716147</v>
+        <v>242.1686484761024</v>
       </c>
       <c r="N22" t="n">
-        <v>43.6981283365962</v>
+        <v>425.5876096210801</v>
       </c>
       <c r="O22" t="n">
-        <v>219.5565574740961</v>
+        <v>75.00386941408047</v>
       </c>
       <c r="P22" t="n">
-        <v>219.5565574740961</v>
+        <v>56.38068850211145</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>143.8440664309462</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J24" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
-        <v>401.9925482824783</v>
+        <v>404.1168265390426</v>
       </c>
       <c r="L24" t="n">
         <v>214.1541257794518</v>
       </c>
       <c r="M24" t="n">
-        <v>506.080461825859</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N24" t="n">
         <v>270.5448280395447</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K25" t="n">
-        <v>115.9487269939336</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L25" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M25" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N25" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O25" t="n">
-        <v>409.6841833510115</v>
+        <v>169.5567187188988</v>
       </c>
       <c r="P25" t="n">
         <v>333.9661976574595</v>
@@ -36764,13 +36764,13 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N28" t="n">
-        <v>186.1095904660701</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
-        <v>91.426850604809</v>
+        <v>97.70134702751747</v>
       </c>
       <c r="P28" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q28" t="n">
         <v>153.5734258178641</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J30" t="n">
         <v>312.361855595743</v>
@@ -36931,10 +36931,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q30" t="n">
-        <v>272.2831751509795</v>
+        <v>341.3760161886397</v>
       </c>
       <c r="R30" t="n">
-        <v>107.1416677554515</v>
+        <v>18.28336828375327</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,16 +36998,16 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M31" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N31" t="n">
-        <v>443.3679056323699</v>
+        <v>216.3031158151049</v>
       </c>
       <c r="O31" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P31" t="n">
-        <v>76.7078824911594</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q31" t="n">
         <v>153.5734258178641</v>
@@ -37147,13 +37147,13 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J33" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K33" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L33" t="n">
-        <v>364.4734645831713</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M33" t="n">
         <v>257.8264825848162</v>
@@ -37168,7 +37168,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.1983779132224</v>
+        <v>498.6474177014201</v>
       </c>
       <c r="R33" t="n">
         <v>107.1416677554515</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K34" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L34" t="n">
         <v>417.6704839137738</v>
@@ -37238,16 +37238,16 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N34" t="n">
-        <v>186.1095904660701</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O34" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P34" t="n">
-        <v>333.9661976574595</v>
+        <v>160.0217794650455</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>22.31535144311488</v>
+        <v>14.88230731867579</v>
       </c>
       <c r="J36" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K36" t="n">
-        <v>295.493068633307</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L36" t="n">
         <v>214.1541257794518</v>
@@ -37405,7 +37405,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.1983779132224</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R36" t="n">
         <v>107.1416677554515</v>
@@ -37466,7 +37466,7 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K37" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L37" t="n">
         <v>417.6704839137738</v>
@@ -37475,16 +37475,16 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N37" t="n">
-        <v>443.3679056323699</v>
+        <v>131.3850693088758</v>
       </c>
       <c r="O37" t="n">
         <v>409.6841833510115</v>
       </c>
       <c r="P37" t="n">
-        <v>94.36383640308964</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
-        <v>506.0804618258589</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L39" t="n">
-        <v>249.696433571378</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M39" t="n">
         <v>257.8264825848162</v>
@@ -37642,7 +37642,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.1983779132224</v>
+        <v>252.5177167169422</v>
       </c>
       <c r="R39" t="n">
         <v>107.1416677554515</v>
@@ -37703,13 +37703,13 @@
         <v>22.34618924547856</v>
       </c>
       <c r="K40" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L40" t="n">
-        <v>417.6704839137738</v>
+        <v>256.2636371584653</v>
       </c>
       <c r="M40" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N40" t="n">
         <v>443.3679056323699</v>
@@ -37718,10 +37718,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P40" t="n">
-        <v>160.0217794650453</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J42" t="n">
         <v>312.361855595743</v>
@@ -37879,7 +37879,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q42" t="n">
-        <v>272.2831751509797</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R42" t="n">
         <v>107.1416677554515</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K43" t="n">
         <v>277.3555737492421</v>
@@ -37946,19 +37946,19 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M43" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N43" t="n">
-        <v>443.3679056323699</v>
+        <v>216.3031158151049</v>
       </c>
       <c r="O43" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P43" t="n">
-        <v>269.9152803064862</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J44" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K44" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M44" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O44" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P44" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q44" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R44" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.549893009077124</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J45" t="n">
         <v>312.361855595743</v>
@@ -38101,25 +38101,25 @@
         <v>145.1737298295874</v>
       </c>
       <c r="L45" t="n">
-        <v>214.1541257794519</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N45" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O45" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P45" t="n">
-        <v>183.4326479153363</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q45" t="n">
-        <v>361.1414746226777</v>
+        <v>252.5177167169422</v>
       </c>
       <c r="R45" t="n">
-        <v>18.28336828375331</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>88.00413230743453</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K46" t="n">
         <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
-        <v>417.6704839137739</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M46" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N46" t="n">
-        <v>216.3031158151055</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O46" t="n">
-        <v>409.6841833510116</v>
+        <v>97.7013470275177</v>
       </c>
       <c r="P46" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.5734258178642</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
